--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/猫箱子_catbox.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/猫箱子_catbox.xlsx
@@ -12,20 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28140" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="call" sheetId="1" r:id="rId1"/>
+    <sheet name="catbox" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">call!$B$2:$F$1904</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">catbox!$B$2:$F$1904</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
-  <si>
-    <t>id</t>
-  </si>
   <si>
     <t>——</t>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -290,6 +287,10 @@
 以“|”号间隔
 （类型|ID|数量,类型|ID|数量）
 玩家打开猫箱子时随机抽取其中一样</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_lv</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -952,12 +953,12 @@
   <dimension ref="A1:F1925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
+    <col min="1" max="1" width="15.875" style="14" customWidth="1"/>
     <col min="2" max="2" width="79.625" style="14" customWidth="1"/>
     <col min="3" max="3" width="15.25" style="14" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="14" customWidth="1"/>
@@ -970,22 +971,22 @@
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1" ht="165" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="27">
       <c r="A3" s="10" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -994,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1005,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1016,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1027,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1038,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5"/>
       <c r="E8" s="21"/>
@@ -1048,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="21"/>
@@ -1058,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="21"/>
@@ -1068,7 +1069,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="21"/>
@@ -1078,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="21"/>
@@ -1088,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="21"/>
@@ -1098,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="21"/>
@@ -1108,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5"/>
       <c r="E15" s="21"/>
@@ -1118,7 +1119,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="21"/>
@@ -1128,7 +1129,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="5"/>
       <c r="E17" s="21"/>
@@ -1138,7 +1139,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="5"/>
       <c r="E18" s="21"/>
@@ -1148,7 +1149,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="5"/>
       <c r="E19" s="21"/>
@@ -1158,7 +1159,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="5"/>
       <c r="E20" s="21"/>
@@ -1168,7 +1169,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="5"/>
       <c r="E21" s="21"/>
@@ -1178,7 +1179,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="5"/>
       <c r="E22" s="21"/>
@@ -1188,11 +1189,11 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="5"/>
       <c r="E23" s="21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1200,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="5"/>
       <c r="E24" s="21"/>
@@ -1210,7 +1211,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="5"/>
       <c r="E25" s="21"/>
@@ -1220,7 +1221,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="5"/>
       <c r="E26" s="21"/>
@@ -1230,7 +1231,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="5"/>
       <c r="E27" s="21"/>
@@ -1240,7 +1241,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="5"/>
       <c r="E28" s="21"/>
@@ -1250,7 +1251,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="5"/>
       <c r="E29" s="21"/>
@@ -1260,7 +1261,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="5"/>
       <c r="E30" s="21"/>
@@ -1270,7 +1271,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="5"/>
       <c r="E31" s="21"/>
@@ -1280,7 +1281,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="5"/>
       <c r="E32" s="21"/>
@@ -1290,7 +1291,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="5"/>
       <c r="E33" s="21"/>
@@ -1300,7 +1301,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="5"/>
       <c r="E34" s="21"/>
@@ -1310,7 +1311,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="5"/>
       <c r="E35" s="21"/>
@@ -1320,7 +1321,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="5"/>
       <c r="E36" s="21"/>
@@ -1330,7 +1331,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="5"/>
       <c r="E37" s="21"/>
@@ -1340,7 +1341,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="5"/>
       <c r="E38" s="21"/>
@@ -1350,7 +1351,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="5"/>
       <c r="E39" s="21"/>
@@ -1360,7 +1361,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="5"/>
       <c r="E40" s="21"/>
@@ -1370,7 +1371,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="5"/>
       <c r="E41" s="21"/>
@@ -1380,7 +1381,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="5"/>
       <c r="E42" s="21"/>
@@ -1390,7 +1391,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="5"/>
       <c r="E43" s="21"/>
@@ -1400,7 +1401,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" s="5"/>
       <c r="E44" s="21"/>
@@ -1410,7 +1411,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" s="5"/>
       <c r="E45" s="21"/>
@@ -1420,7 +1421,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="5"/>
       <c r="E46" s="21"/>
@@ -1430,7 +1431,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47" s="5"/>
       <c r="E47" s="21"/>
@@ -1440,7 +1441,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="5"/>
       <c r="E48" s="21"/>
@@ -1450,7 +1451,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" s="5"/>
       <c r="E49" s="21"/>
@@ -1460,7 +1461,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="5"/>
       <c r="E50" s="21"/>
@@ -1470,7 +1471,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="5"/>
       <c r="E51" s="21"/>
@@ -1480,7 +1481,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" s="5"/>
       <c r="E52" s="21"/>
@@ -1490,7 +1491,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="5"/>
       <c r="E53" s="21"/>
@@ -1500,7 +1501,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" s="5"/>
       <c r="E54" s="21"/>
@@ -1510,7 +1511,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="5"/>
       <c r="E55" s="21"/>
@@ -1520,7 +1521,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C56" s="5"/>
       <c r="E56" s="21"/>
@@ -1530,7 +1531,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" s="5"/>
       <c r="E57" s="21"/>
@@ -1540,7 +1541,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" s="5"/>
       <c r="E58" s="21"/>
@@ -1550,7 +1551,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59" s="5"/>
       <c r="E59" s="21"/>
@@ -1560,7 +1561,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="5"/>
       <c r="E60" s="21"/>
@@ -1570,7 +1571,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="5"/>
       <c r="E61" s="21"/>
@@ -1580,7 +1581,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" s="5"/>
       <c r="E62" s="21"/>
@@ -1590,7 +1591,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" s="5"/>
       <c r="E63" s="21"/>
@@ -1600,7 +1601,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="5"/>
       <c r="E64" s="21"/>
@@ -1610,7 +1611,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" s="5"/>
       <c r="E65" s="21"/>
@@ -1620,7 +1621,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="5"/>
       <c r="E66" s="21"/>
@@ -1630,7 +1631,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="5"/>
       <c r="E67" s="21"/>
@@ -1640,7 +1641,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C68" s="5"/>
       <c r="E68" s="21"/>
@@ -1650,7 +1651,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69" s="5"/>
       <c r="E69" s="21"/>
@@ -1660,7 +1661,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" s="5"/>
       <c r="E70" s="21"/>
@@ -1670,7 +1671,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C71" s="5"/>
       <c r="E71" s="21"/>
@@ -1680,7 +1681,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" s="5"/>
       <c r="E72" s="21"/>
@@ -1690,7 +1691,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" s="5"/>
       <c r="E73" s="21"/>
@@ -1700,7 +1701,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C74" s="5"/>
       <c r="E74" s="21"/>
@@ -1710,7 +1711,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C75" s="5"/>
       <c r="E75" s="21"/>
@@ -1720,7 +1721,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C76" s="5"/>
       <c r="E76" s="21"/>
@@ -1730,7 +1731,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C77" s="5"/>
       <c r="E77" s="21"/>
@@ -1740,7 +1741,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="5"/>
       <c r="E78" s="21"/>
@@ -1750,7 +1751,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C79" s="5"/>
       <c r="E79" s="21"/>
@@ -1760,7 +1761,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C80" s="5"/>
       <c r="E80" s="21"/>
@@ -1770,7 +1771,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C81" s="5"/>
       <c r="E81" s="21"/>
@@ -1780,7 +1781,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C82" s="5"/>
       <c r="E82" s="21"/>
@@ -1790,7 +1791,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C83" s="5"/>
       <c r="E83" s="21"/>
@@ -1800,7 +1801,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C84" s="5"/>
       <c r="E84" s="21"/>
@@ -1810,7 +1811,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C85" s="5"/>
       <c r="E85" s="21"/>
@@ -1820,7 +1821,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C86" s="5"/>
       <c r="E86" s="21"/>
@@ -1830,7 +1831,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C87" s="5"/>
       <c r="E87" s="21"/>
@@ -1840,7 +1841,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E88" s="22"/>
     </row>
@@ -1849,7 +1850,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C89" s="5"/>
       <c r="E89" s="21"/>
@@ -1859,7 +1860,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C90" s="5"/>
       <c r="E90" s="21"/>
@@ -1869,7 +1870,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C91" s="5"/>
       <c r="E91" s="21"/>
@@ -1879,7 +1880,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C92" s="5"/>
       <c r="E92" s="21"/>
@@ -1889,7 +1890,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C93" s="5"/>
       <c r="E93" s="21"/>
@@ -1899,7 +1900,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C94" s="5"/>
       <c r="E94" s="21"/>
@@ -1909,7 +1910,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C95" s="5"/>
       <c r="E95" s="21"/>
@@ -1919,7 +1920,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C96" s="5"/>
       <c r="E96" s="21"/>
@@ -1929,7 +1930,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C97" s="5"/>
       <c r="E97" s="21"/>
@@ -1939,7 +1940,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C98" s="5"/>
       <c r="E98" s="21"/>
@@ -1949,7 +1950,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C99" s="5"/>
       <c r="E99" s="21"/>
@@ -1959,7 +1960,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C100" s="5"/>
       <c r="E100" s="21"/>
@@ -1969,7 +1970,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C101" s="5"/>
       <c r="E101" s="21"/>
@@ -1979,7 +1980,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C102" s="5"/>
       <c r="E102" s="21"/>
@@ -1989,7 +1990,7 @@
         <v>100</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C103" s="5"/>
       <c r="E103" s="21"/>
